--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -449,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -443,16 +443,16 @@
         <v>8.5</v>
       </c>
       <c r="D2" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G2" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -434,16 +434,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>12.7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -452,7 +452,7 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -446,13 +446,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0.2</v>
       </c>
       <c r="G2" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -409,7 +409,7 @@
     <col min="7" max="7" style="2" width="5.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>

--- a/datos_terraplen.xlsx
+++ b/datos_terraplen.xlsx
@@ -409,7 +409,7 @@
     <col min="7" max="7" style="2" width="5.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,18 +432,18 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>14.72</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>20.72</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>9.81</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -452,7 +452,7 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
